--- a/data/trans_orig/P16A17-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A17-Estudios-trans_orig.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres que han consumido hormonas para la menopausia en las dos últimas semanas en 2007 (tasa de respuesta: 99,97%)</t>
+          <t>Mujeres según si han consumido hormonas para la menopausia en las dos últimas semanas en 2007 (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1021,7 +1021,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres que han consumido hormonas para la menopausia en las dos últimas semanas en 2012 (tasa de respuesta: 99,21%)</t>
+          <t>Mujeres según si han consumido hormonas para la menopausia en las dos últimas semanas en 2012 (tasa de respuesta: 99,21%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1502,7 +1502,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres que han consumido hormonas para la menopausia en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Mujeres según si han consumido hormonas para la menopausia en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1983,7 +1983,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres que han consumido hormonas para la menopausia en las dos últimas semanas en 2023 (tasa de respuesta: 99,89%)</t>
+          <t>Mujeres según si han consumido hormonas para la menopausia en las dos últimas semanas en 2023 (tasa de respuesta: 99,89%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A17-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A17-Estudios-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>8917</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4336</v>
+        <v>4110</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16702</v>
+        <v>16441</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006790025865574391</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003301694271074017</v>
+        <v>0.00312932335098499</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01271789678097195</v>
+        <v>0.01251956772892681</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>1304338</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1296553</v>
+        <v>1296814</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1308919</v>
+        <v>1309145</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9932099741344256</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9872821032190284</v>
+        <v>0.987480432271073</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.996698305728926</v>
+        <v>0.996870676649015</v>
       </c>
     </row>
     <row r="6">
@@ -715,19 +715,19 @@
         <v>11993</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6812</v>
+        <v>6061</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20002</v>
+        <v>20493</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007553537878132133</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00429035875574209</v>
+        <v>0.003817764564598216</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01259825911013009</v>
+        <v>0.01290755876151905</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +744,19 @@
         <v>1575680</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1567671</v>
+        <v>1567180</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1580861</v>
+        <v>1581612</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9924464621218678</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9874017408898697</v>
+        <v>0.9870924412384807</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9957096412442579</v>
+        <v>0.9961822354354017</v>
       </c>
     </row>
     <row r="9">
@@ -806,19 +806,19 @@
         <v>3179</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8834</v>
+        <v>9107</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006672512879661157</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002097206816097394</v>
+        <v>0.002095357835645561</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01854249451891715</v>
+        <v>0.01911627236945313</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>473233</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>467578</v>
+        <v>467305</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>475413</v>
+        <v>475414</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9933274871203388</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9814575054810828</v>
+        <v>0.9808837276305467</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9979027931839026</v>
+        <v>0.9979046421643545</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>24088</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16076</v>
+        <v>15744</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35122</v>
+        <v>34576</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00713237311627108</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004759827443151944</v>
+        <v>0.004661606530646006</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01039927954728383</v>
+        <v>0.01023752702259107</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>3353251</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3342217</v>
+        <v>3342763</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3361263</v>
+        <v>3361595</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9928676268837289</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9896007204527161</v>
+        <v>0.9897624729774087</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9952401725568478</v>
+        <v>0.9953383934693538</v>
       </c>
     </row>
     <row r="15">
@@ -1105,19 +1105,19 @@
         <v>9264</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4106</v>
+        <v>4099</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17539</v>
+        <v>17497</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006978476191652252</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003092938965790871</v>
+        <v>0.003087580121198759</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01321193340181971</v>
+        <v>0.01317979270332785</v>
       </c>
     </row>
     <row r="5">
@@ -1134,19 +1134,19 @@
         <v>1318284</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1310009</v>
+        <v>1310051</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1323442</v>
+        <v>1323449</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9930215238083477</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9867880665981803</v>
+        <v>0.9868202072966722</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9969070610342091</v>
+        <v>0.9969124198788013</v>
       </c>
     </row>
     <row r="6">
@@ -1196,19 +1196,19 @@
         <v>7202</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3093</v>
+        <v>3911</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14474</v>
+        <v>14331</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004118484629517541</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001768724072341609</v>
+        <v>0.002236489477303444</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.008276567391962062</v>
+        <v>0.00819511434562047</v>
       </c>
     </row>
     <row r="8">
@@ -1225,19 +1225,19 @@
         <v>1741540</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1734268</v>
+        <v>1734411</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1745649</v>
+        <v>1744831</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9958815153704824</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.991723432608038</v>
+        <v>0.9918048856543797</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9982312759276584</v>
+        <v>0.9977635105226966</v>
       </c>
     </row>
     <row r="9">
@@ -1287,19 +1287,19 @@
         <v>5224</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1906</v>
+        <v>1843</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13169</v>
+        <v>13749</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01146678080199597</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004183351792621168</v>
+        <v>0.004045639604631126</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02890754861338287</v>
+        <v>0.03018105603727116</v>
       </c>
     </row>
     <row r="11">
@@ -1316,19 +1316,19 @@
         <v>450343</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>442398</v>
+        <v>441818</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>453661</v>
+        <v>453724</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9885332191980041</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9710924513866172</v>
+        <v>0.9698189439627288</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9958166482073789</v>
+        <v>0.9959543603953687</v>
       </c>
     </row>
     <row r="12">
@@ -1378,19 +1378,19 @@
         <v>21690</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13424</v>
+        <v>13505</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34814</v>
+        <v>33546</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006141335715299621</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003800826928301043</v>
+        <v>0.003823896752314562</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.009857180582375004</v>
+        <v>0.009498234773717602</v>
       </c>
     </row>
     <row r="14">
@@ -1407,19 +1407,19 @@
         <v>3510167</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3497043</v>
+        <v>3498311</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3518433</v>
+        <v>3518352</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9938586642847004</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9901428194176253</v>
+        <v>0.9905017652262825</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.996199173071699</v>
+        <v>0.9961761032476855</v>
       </c>
     </row>
     <row r="15">
@@ -1586,19 +1586,19 @@
         <v>4666</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1250</v>
+        <v>1259</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11235</v>
+        <v>10963</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004691540544926465</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001256758837258506</v>
+        <v>0.001266059357172506</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01129527373400759</v>
+        <v>0.01102185425717455</v>
       </c>
     </row>
     <row r="5">
@@ -1615,19 +1615,19 @@
         <v>989994</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>983425</v>
+        <v>983697</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>993410</v>
+        <v>993401</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9953084594550735</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9887047262659926</v>
+        <v>0.9889781457428255</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9987432411627415</v>
+        <v>0.9987339406428275</v>
       </c>
     </row>
     <row r="6">
@@ -1677,19 +1677,19 @@
         <v>10075</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4948</v>
+        <v>4982</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17472</v>
+        <v>17819</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005067044616290154</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002488620638658127</v>
+        <v>0.002505789032880596</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.00878745963263142</v>
+        <v>0.008961801663519332</v>
       </c>
     </row>
     <row r="8">
@@ -1706,19 +1706,19 @@
         <v>1978225</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1970828</v>
+        <v>1970481</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1983352</v>
+        <v>1983318</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9949329553837098</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9912125403673689</v>
+        <v>0.9910381983364813</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9975113793613419</v>
+        <v>0.9974942109671198</v>
       </c>
     </row>
     <row r="9">
@@ -1768,19 +1768,19 @@
         <v>3347</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8958</v>
+        <v>9039</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006094602693557938</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001978011901381378</v>
+        <v>0.00196537767905143</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01631263713231999</v>
+        <v>0.01645975429396917</v>
       </c>
     </row>
     <row r="11">
@@ -1797,19 +1797,19 @@
         <v>545793</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>540182</v>
+        <v>540101</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>548054</v>
+        <v>548061</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.993905397306442</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.98368736286768</v>
+        <v>0.9835402457060308</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9980219880986186</v>
+        <v>0.9980346223209485</v>
       </c>
     </row>
     <row r="12">
@@ -1859,19 +1859,19 @@
         <v>18088</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10737</v>
+        <v>10744</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28773</v>
+        <v>28115</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005121056296298777</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003039815796538207</v>
+        <v>0.003041747860478832</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.008146138400030237</v>
+        <v>0.007959733276763661</v>
       </c>
     </row>
     <row r="14">
@@ -1888,19 +1888,19 @@
         <v>3514012</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3503327</v>
+        <v>3503985</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3521363</v>
+        <v>3521356</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9948789437037012</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9918538615999698</v>
+        <v>0.9920402667232363</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9969601842034619</v>
+        <v>0.9969582521395213</v>
       </c>
     </row>
     <row r="15">
@@ -2067,19 +2067,19 @@
         <v>3471</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7835</v>
+        <v>8342</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004232116698568588</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001365697581814735</v>
+        <v>0.001363055527897836</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.009553952588457352</v>
+        <v>0.01017225013586175</v>
       </c>
     </row>
     <row r="5">
@@ -2096,19 +2096,19 @@
         <v>816645</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>812281</v>
+        <v>811774</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>818996</v>
+        <v>818998</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9957678833014313</v>
+        <v>0.9957678833014315</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9904460474115424</v>
+        <v>0.9898277498641379</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9986343024181852</v>
+        <v>0.9986369444721022</v>
       </c>
     </row>
     <row r="6">
@@ -2158,19 +2158,19 @@
         <v>10814</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6435</v>
+        <v>6241</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17548</v>
+        <v>17609</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004987307980630901</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002967712833423646</v>
+        <v>0.002878395413886608</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.008093010654466194</v>
+        <v>0.008121164212734349</v>
       </c>
     </row>
     <row r="8">
@@ -2187,19 +2187,19 @@
         <v>2157477</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2150743</v>
+        <v>2150682</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2161856</v>
+        <v>2162050</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9950126920193689</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9919069893455336</v>
+        <v>0.9918788357872655</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9970322871665763</v>
+        <v>0.9971216045861133</v>
       </c>
     </row>
     <row r="9">
@@ -2249,19 +2249,19 @@
         <v>3952</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1399</v>
+        <v>1433</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7493</v>
+        <v>7856</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.00539378129662013</v>
+        <v>0.005393781296620129</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001910205252101295</v>
+        <v>0.001955801924779603</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01022710529593699</v>
+        <v>0.01072244874212888</v>
       </c>
     </row>
     <row r="11">
@@ -2278,19 +2278,19 @@
         <v>728690</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>725149</v>
+        <v>724786</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>731243</v>
+        <v>731209</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.99460621870338</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.989772894704063</v>
+        <v>0.9892775512578713</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9980897947478987</v>
+        <v>0.9980441980752205</v>
       </c>
     </row>
     <row r="12">
@@ -2340,19 +2340,19 @@
         <v>18236</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12129</v>
+        <v>12333</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27493</v>
+        <v>26254</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004900895576697878</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003259486998786221</v>
+        <v>0.003314341895320496</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.007388546038605569</v>
+        <v>0.007055618246353756</v>
       </c>
     </row>
     <row r="14">
@@ -2369,19 +2369,19 @@
         <v>3702814</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3693557</v>
+        <v>3694796</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3708921</v>
+        <v>3708717</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9950991044233021</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9926114539613946</v>
+        <v>0.9929443817536462</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9967405130012137</v>
+        <v>0.9966856581046796</v>
       </c>
     </row>
     <row r="15">
